--- a/data/contacts-list.xlsx
+++ b/data/contacts-list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed Moustafa\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed Moustafa\OneDrive\Documents\GitHub\IEnergy-Portal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F58C1F8A-3CF4-4695-922E-023AC83692EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A4A2CC-1861-4ABC-BC07-C13F34850A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8C9E1C25-660F-45E1-8753-1FF355FB16CF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>Code</t>
   </si>
@@ -108,24 +108,109 @@
   </si>
   <si>
     <t>01271301076</t>
+  </si>
+  <si>
+    <t>abdelrhman.essam@ienergyegypt.com</t>
+  </si>
+  <si>
+    <t> Unrestricted</t>
+  </si>
+  <si>
+    <t>14.58 MB / 1 GB / 1.42%</t>
+  </si>
+  <si>
+    <t>  </t>
+  </si>
+  <si>
+    <t>ahmed.adel@ienergyegypt.com</t>
+  </si>
+  <si>
+    <t>119.37 MB / 1 GB / 11.66%</t>
+  </si>
+  <si>
+    <t>859.38 MB / 5 GB / 16.78%</t>
+  </si>
+  <si>
+    <t>amal.elsisi@ienergyegypt.com</t>
+  </si>
+  <si>
+    <t>146.26 MB / 1 GB / 14.28%</t>
+  </si>
+  <si>
+    <t>doaa.ramadan@ienergyegypt.com</t>
+  </si>
+  <si>
+    <t>4.13 MB / 1 GB / 0.4%</t>
+  </si>
+  <si>
+    <t>doha.elsayed@ienergyegypt.com</t>
+  </si>
+  <si>
+    <t>9.67 MB / 1 GB / 0.94%</t>
+  </si>
+  <si>
+    <t>ienergyegyptSystem</t>
+  </si>
+  <si>
+    <t>60.58 KB / ∞</t>
+  </si>
+  <si>
+    <t>info@ienergyegypt.com</t>
+  </si>
+  <si>
+    <t>5.13 MB / 250 MB / 2.05%</t>
+  </si>
+  <si>
+    <t>islam.said@ienergyegypt.com</t>
+  </si>
+  <si>
+    <t>91.1 MB / 1 GB / 8.9%</t>
+  </si>
+  <si>
+    <t>mohamed.abdelbary@ienergyegypt.com</t>
+  </si>
+  <si>
+    <t>151.43 MB / 1 GB / 14.79%</t>
+  </si>
+  <si>
+    <t>momen.salah@ienergyegypt.com</t>
+  </si>
+  <si>
+    <t>11.35 MB / 1 GB / 1.11%</t>
+  </si>
+  <si>
+    <t>nesma.elwany@ienergyegypt.com</t>
+  </si>
+  <si>
+    <t>143.04 MB / 1 GB / 13.97%</t>
+  </si>
+  <si>
+    <t>wilson@ienergyegypt.com</t>
+  </si>
+  <si>
+    <t>01272845302</t>
+  </si>
+  <si>
+    <t>01272832504</t>
+  </si>
+  <si>
+    <t>01272832690</t>
+  </si>
+  <si>
+    <t>01272831470</t>
+  </si>
+  <si>
+    <t>01272841451</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,35 +233,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -186,9 +268,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -214,15 +297,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD46BDCD-2402-4AAB-AC2A-06D11DAD35CA}" name="Table1" displayName="Table1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD46BDCD-2402-4AAB-AC2A-06D11DAD35CA}" name="Table1" displayName="Table1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:F13" xr:uid="{BD46BDCD-2402-4AAB-AC2A-06D11DAD35CA}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3BEFE3B8-A47E-4BC0-A932-19E0BBD95FB5}" name="Code" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{0942A519-F57E-42C4-8043-2400FECDB7E4}" name="Employee Name" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{3534D92B-C794-4879-9CEF-1C4CEF9FB1F8}" name="Title" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{FDF819BE-51E1-4551-AFD1-083567F0CDD1}" name="Mobile Number" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{F982A483-7DF2-43F2-8C1A-F0DDA3A17F60}" name="Email" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{75C535F0-C98C-44D9-BAB6-C3ADB164A909}" name="Office Number" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{3534D92B-C794-4879-9CEF-1C4CEF9FB1F8}" name="Title" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{FDF819BE-51E1-4551-AFD1-083567F0CDD1}" name="Mobile Number" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{F982A483-7DF2-43F2-8C1A-F0DDA3A17F60}" name="Email" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{75C535F0-C98C-44D9-BAB6-C3ADB164A909}" name="Office Number" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -545,23 +628,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DFCA6D-77A8-4229-B309-F2F088AFFBEE}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="11" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24" style="3" customWidth="1"/>
+    <col min="5" max="5" width="32.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,163 +665,405 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>240001</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>240003</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1">
+        <v>104</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>240005</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>240011</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1">
+        <v>107</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>240004</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1">
+        <v>103</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.1166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>250012</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>250018</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="D8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>250015</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1">
+        <v>103</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.1678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="I11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="K12" s="4">
+        <v>0.14280000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K15" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="K18" s="4">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="K23" s="4">
+        <v>2.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="K26" s="4">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="K29" s="4">
+        <v>0.1479</v>
+      </c>
+    </row>
+    <row r="31" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="K32" s="4">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="K35" s="4">
+        <v>0.13969999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I37" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{C82BB732-E967-4AC4-9402-CC77440EBB8F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/contacts-list.xlsx
+++ b/data/contacts-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed Moustafa\OneDrive\Documents\GitHub\IEnergy-Portal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A4A2CC-1861-4ABC-BC07-C13F34850A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A23920-5EB0-4C05-942A-34A28C2F54E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8C9E1C25-660F-45E1-8753-1FF355FB16CF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>Code</t>
   </si>
@@ -201,6 +201,21 @@
   </si>
   <si>
     <t>01272841451</t>
+  </si>
+  <si>
+    <t>01226067738</t>
+  </si>
+  <si>
+    <t>01272832197</t>
+  </si>
+  <si>
+    <t>01272836708</t>
+  </si>
+  <si>
+    <t>Karim Magdy Attia</t>
+  </si>
+  <si>
+    <t>Security Supervisor</t>
   </si>
 </sst>
 </file>
@@ -265,13 +280,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -297,15 +312,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD46BDCD-2402-4AAB-AC2A-06D11DAD35CA}" name="Table1" displayName="Table1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD46BDCD-2402-4AAB-AC2A-06D11DAD35CA}" name="Table1" displayName="Table1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F13" xr:uid="{BD46BDCD-2402-4AAB-AC2A-06D11DAD35CA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3BEFE3B8-A47E-4BC0-A932-19E0BBD95FB5}" name="Code" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{0942A519-F57E-42C4-8043-2400FECDB7E4}" name="Employee Name" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{3534D92B-C794-4879-9CEF-1C4CEF9FB1F8}" name="Title" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{FDF819BE-51E1-4551-AFD1-083567F0CDD1}" name="Mobile Number" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{F982A483-7DF2-43F2-8C1A-F0DDA3A17F60}" name="Email" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{75C535F0-C98C-44D9-BAB6-C3ADB164A909}" name="Office Number" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{3BEFE3B8-A47E-4BC0-A932-19E0BBD95FB5}" name="Code" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0942A519-F57E-42C4-8043-2400FECDB7E4}" name="Employee Name" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{3534D92B-C794-4879-9CEF-1C4CEF9FB1F8}" name="Title" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{FDF819BE-51E1-4551-AFD1-083567F0CDD1}" name="Mobile Number" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{F982A483-7DF2-43F2-8C1A-F0DDA3A17F60}" name="Email" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{75C535F0-C98C-44D9-BAB6-C3ADB164A909}" name="Office Number" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -631,7 +646,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -782,7 +797,9 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
@@ -823,7 +840,9 @@
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="I8" s="3" t="s">
         <v>22</v>
@@ -862,12 +881,22 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="1">
+        <v>240009</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>116</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>

--- a/data/contacts-list.xlsx
+++ b/data/contacts-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed Moustafa\OneDrive\Documents\GitHub\IEnergy-Portal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A23920-5EB0-4C05-942A-34A28C2F54E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4533FA-9068-49C9-84F7-CBE8A1CB09EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8C9E1C25-660F-45E1-8753-1FF355FB16CF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Code</t>
   </si>
@@ -113,79 +113,19 @@
     <t>abdelrhman.essam@ienergyegypt.com</t>
   </si>
   <si>
-    <t> Unrestricted</t>
-  </si>
-  <si>
-    <t>14.58 MB / 1 GB / 1.42%</t>
-  </si>
-  <si>
-    <t>  </t>
-  </si>
-  <si>
     <t>ahmed.adel@ienergyegypt.com</t>
   </si>
   <si>
-    <t>119.37 MB / 1 GB / 11.66%</t>
-  </si>
-  <si>
-    <t>859.38 MB / 5 GB / 16.78%</t>
-  </si>
-  <si>
-    <t>amal.elsisi@ienergyegypt.com</t>
-  </si>
-  <si>
-    <t>146.26 MB / 1 GB / 14.28%</t>
-  </si>
-  <si>
     <t>doaa.ramadan@ienergyegypt.com</t>
   </si>
   <si>
-    <t>4.13 MB / 1 GB / 0.4%</t>
-  </si>
-  <si>
     <t>doha.elsayed@ienergyegypt.com</t>
   </si>
   <si>
-    <t>9.67 MB / 1 GB / 0.94%</t>
-  </si>
-  <si>
-    <t>ienergyegyptSystem</t>
-  </si>
-  <si>
-    <t>60.58 KB / ∞</t>
-  </si>
-  <si>
-    <t>info@ienergyegypt.com</t>
-  </si>
-  <si>
-    <t>5.13 MB / 250 MB / 2.05%</t>
-  </si>
-  <si>
     <t>islam.said@ienergyegypt.com</t>
   </si>
   <si>
-    <t>91.1 MB / 1 GB / 8.9%</t>
-  </si>
-  <si>
-    <t>mohamed.abdelbary@ienergyegypt.com</t>
-  </si>
-  <si>
-    <t>151.43 MB / 1 GB / 14.79%</t>
-  </si>
-  <si>
-    <t>momen.salah@ienergyegypt.com</t>
-  </si>
-  <si>
-    <t>11.35 MB / 1 GB / 1.11%</t>
-  </si>
-  <si>
     <t>nesma.elwany@ienergyegypt.com</t>
-  </si>
-  <si>
-    <t>143.04 MB / 1 GB / 13.97%</t>
-  </si>
-  <si>
-    <t>wilson@ienergyegypt.com</t>
   </si>
   <si>
     <t>01272845302</t>
@@ -251,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -260,9 +200,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -643,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DFCA6D-77A8-4229-B309-F2F088AFFBEE}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -660,7 +597,7 @@
     <col min="7" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,7 +617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>240001</v>
       </c>
@@ -699,20 +636,8 @@
       <c r="F2" s="1">
         <v>101</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>240003</v>
       </c>
@@ -723,19 +648,16 @@
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>104</v>
       </c>
-      <c r="J3" s="4">
-        <v>1.4200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>240005</v>
       </c>
@@ -746,16 +668,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>240011</v>
       </c>
@@ -766,28 +688,16 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1">
         <v>107</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>240004</v>
       </c>
@@ -798,19 +708,16 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1">
         <v>103</v>
       </c>
-      <c r="K6" s="4">
-        <v>0.1166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>250012</v>
       </c>
@@ -821,16 +728,16 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>250018</v>
       </c>
@@ -841,23 +748,11 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="I8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>250015</v>
       </c>
@@ -868,7 +763,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>24</v>
@@ -876,218 +771,46 @@
       <c r="F9" s="1">
         <v>103</v>
       </c>
-      <c r="K9" s="4">
-        <v>0.1678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>240009</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="I11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="K12" s="4">
-        <v>0.14280000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="I14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K15" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.35">
-      <c r="I17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.35">
-      <c r="K18" s="4">
-        <v>9.4000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.35">
-      <c r="I20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="9:12" x14ac:dyDescent="0.35">
-      <c r="I22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="9:12" x14ac:dyDescent="0.35">
-      <c r="K23" s="4">
-        <v>2.0500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="9:12" x14ac:dyDescent="0.35">
-      <c r="I25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="9:12" x14ac:dyDescent="0.35">
-      <c r="K26" s="4">
-        <v>8.8999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="9:12" x14ac:dyDescent="0.35">
-      <c r="I28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="9:12" x14ac:dyDescent="0.35">
-      <c r="K29" s="4">
-        <v>0.1479</v>
-      </c>
-    </row>
-    <row r="31" spans="9:12" x14ac:dyDescent="0.35">
-      <c r="I31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="9:12" x14ac:dyDescent="0.35">
-      <c r="K32" s="4">
-        <v>1.11E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="9:12" x14ac:dyDescent="0.35">
-      <c r="I34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="9:12" x14ac:dyDescent="0.35">
-      <c r="K35" s="4">
-        <v>0.13969999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="9:12" x14ac:dyDescent="0.35">
-      <c r="I37" s="3" t="s">
-        <v>49</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
